--- a/miniGRR.xlsx
+++ b/miniGRR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muratcokol/Desktop/Ivan/mini_grr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{728CFFF6-E3C0-424F-B80E-39E5D18999F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1806C4-27D6-5B44-85EF-69624158DAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="-19700" windowWidth="30620" windowHeight="16080" activeTab="5" xr2:uid="{4EBC9B5A-8F24-7C41-9226-136C52C0F516}"/>
+    <workbookView xWindow="11840" yWindow="-21100" windowWidth="48560" windowHeight="17400" activeTab="5" xr2:uid="{4EBC9B5A-8F24-7C41-9226-136C52C0F516}"/>
   </bookViews>
   <sheets>
     <sheet name="minivar" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="93">
   <si>
     <t>chr1</t>
   </si>
@@ -243,18 +243,9 @@
     </r>
   </si>
   <si>
-    <t>miniposbedgraph0based</t>
-  </si>
-  <si>
     <t>bedgraph</t>
   </si>
   <si>
-    <t>miniposbedgraph1based</t>
-  </si>
-  <si>
-    <t>minigenome</t>
-  </si>
-  <si>
     <t>fa</t>
   </si>
   <si>
@@ -264,21 +255,12 @@
     <t>tbi</t>
   </si>
   <si>
-    <t>miniposTSV0based</t>
-  </si>
-  <si>
     <t>tsv</t>
   </si>
   <si>
-    <t>miniposTSV1based</t>
-  </si>
-  <si>
     <t>zero_based: True</t>
   </si>
   <si>
-    <t>minigenemodel_refseq</t>
-  </si>
-  <si>
     <t>annotate</t>
   </si>
   <si>
@@ -288,18 +270,6 @@
     <t>txt</t>
   </si>
   <si>
-    <t>miniregposbedgraph0based</t>
-  </si>
-  <si>
-    <t>miniregposbedgraph1based</t>
-  </si>
-  <si>
-    <t>miniregposTSV0based</t>
-  </si>
-  <si>
-    <t>miniregposTSV1based</t>
-  </si>
-  <si>
     <t>folder</t>
   </si>
   <si>
@@ -309,21 +279,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>tabix -s 1 -b 2 -e 3 -0 -f minipos.tsv.gz</t>
-  </si>
-  <si>
-    <t>tabix -p bed minipos.bedgraph.g</t>
-  </si>
-  <si>
-    <t>tabix -s 1 -b 2 -e 3 -f minipos.tsv.gz</t>
-  </si>
-  <si>
-    <t>tabix -s 1 -b 2 -e 2 -0 -f minipos.tsv.gz</t>
-  </si>
-  <si>
-    <t>tabix -s 1 -b 2 -e 2 -f minipos.tsv.gz</t>
-  </si>
-  <si>
     <t>minigenescore</t>
   </si>
   <si>
@@ -366,21 +321,12 @@
     <t>result is almost ok, but off with 10^-9 - but it misses the first nucleotide</t>
   </si>
   <si>
-    <t>mininpscore_0</t>
-  </si>
-  <si>
     <t>np_score</t>
   </si>
   <si>
-    <t>tabix -s 1 -b 2 -e 2 -f mininp.tsv.gz</t>
-  </si>
-  <si>
     <t>mininpscore_1</t>
   </si>
   <si>
-    <t>tabix -s 1 -b 2 -e 2 -0 -f mininp.tsv.gz</t>
-  </si>
-  <si>
     <t>minivcf</t>
   </si>
   <si>
@@ -412,13 +358,76 @@
   </si>
   <si>
     <t>txt conversion doesn't work as expected.</t>
+  </si>
+  <si>
+    <t>mini_genemodel_refseq</t>
+  </si>
+  <si>
+    <t>mini_genome</t>
+  </si>
+  <si>
+    <t>tabix -s 1 -b 2 -e 2 -0 -f mini_positionscore_tsv_0B.tsv</t>
+  </si>
+  <si>
+    <t>mini_positionscore_tsv_0</t>
+  </si>
+  <si>
+    <t>mini_positionscore_tsv_1</t>
+  </si>
+  <si>
+    <t>tabix -s 1 -b 2 -e 2 -f mini_positionscore_tsv_1.tsv.gz</t>
+  </si>
+  <si>
+    <t>mini_positionscore_bedgraph_0</t>
+  </si>
+  <si>
+    <t>tabix -p bed minipos_0.bedgraph.gz</t>
+  </si>
+  <si>
+    <t>mini_positionscore_bedgraph_1</t>
+  </si>
+  <si>
+    <t>tabix -p bed minipos_1.bedgraph.gz</t>
+  </si>
+  <si>
+    <t>tabix -s 1 -b 2 -e 3 -0 -f mini_positionscore_region_tsv_0.tsv.gz</t>
+  </si>
+  <si>
+    <t>tabix -s 1 -b 2 -e 3 -f mini_positionscore_region_tsv_1.tsv.gz</t>
+  </si>
+  <si>
+    <t>mini_positionscore_region_tsv_1</t>
+  </si>
+  <si>
+    <t>mini_positionscore_region_tsv_0</t>
+  </si>
+  <si>
+    <t>tabix -p bed mini_positionscore_region_bedgraph_1.bedgraph.gz</t>
+  </si>
+  <si>
+    <t>tabix -p bed mini_positionscore_region_bedgraph_0.bedgraph.gz</t>
+  </si>
+  <si>
+    <t>mini_npscore_tsv_0</t>
+  </si>
+  <si>
+    <t>mini_positionscore_region_bedgraph_0</t>
+  </si>
+  <si>
+    <t>mini_positionscore_region_bedgraph_1</t>
+  </si>
+  <si>
+    <t>tabix -s 1 -b 2 -e 2 -0 -f mini_npscore_tsv_0.tsv.gz</t>
+  </si>
+  <si>
+    <t>tabix -s 1 -b 2 -e 2 -f mini_npscore_tsv_1.tsv.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,6 +472,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -490,17 +511,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2653,60 +2674,62 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB6E2C6-84C1-544F-86D3-277767B93508}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>8.31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
+      <c r="E2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -2714,379 +2737,379 @@
         <v>8.31</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>8.31</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="5" t="s">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>8.31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>8.31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8.31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="K17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8.31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8.31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8.31</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8.31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8.31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8.31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>9.4</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>9.5</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
